--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52361.57794276591</v>
+        <v>49360.5264656053</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>18.92112911249622</v>
+      </c>
+      <c r="H2" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>25.79717485420766</v>
-      </c>
-      <c r="F2" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="G2" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>29.89427490705984</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.89427490705985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>12.44627538834367</v>
       </c>
       <c r="F4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>33.93991247395533</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
       <c r="W4" t="n">
-        <v>12.44627538834367</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
     </row>
     <row r="5">
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="F5" t="n">
+        <v>33.89412103271894</v>
+      </c>
+      <c r="G5" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.16194852731947</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>38.48106384277808</v>
       </c>
       <c r="S5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>18.73217250539946</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>33.89412103271894</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>38.48106384277808</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>33.89412103271894</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>194.0268401874897</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>253.2252689012143</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>253.2252689012143</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>253.2252689012153</v>
+        <v>215.0444710745254</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>119.1836076776737</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.120300031952098</v>
+        <v>1.12030003195261</v>
       </c>
       <c r="S8" t="n">
-        <v>155.0592921105788</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>253.2252689012153</v>
+        <v>253.2252689012143</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,13 +1212,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>45.09679855602807</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>21.4932420831945</v>
       </c>
       <c r="S9" t="n">
-        <v>20.42240823313579</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8580273987876</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84.71527941460027</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9287765231554</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.783223662652</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.5071387528643</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.26143966072895</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>209.2298971853359</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>253.2252689012153</v>
+        <v>253.2252689012143</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.480097856636</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>290.0849437131633</v>
       </c>
       <c r="I11" t="n">
-        <v>24.55107413611924</v>
+        <v>24.55107413611944</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>99.12416836819703</v>
+        <v>99.12416836819713</v>
       </c>
       <c r="T11" t="n">
-        <v>46.24395774599293</v>
+        <v>201.9847444590516</v>
       </c>
       <c r="U11" t="n">
         <v>250.9598417351566</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>286.0011048300655</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7631774629108</v>
       </c>
       <c r="H12" t="n">
-        <v>87.31479502570649</v>
+        <v>87.31479502570652</v>
       </c>
       <c r="I12" t="n">
-        <v>10.68173680985409</v>
+        <v>10.68173680985417</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>123.7544928987082</v>
       </c>
       <c r="T12" t="n">
-        <v>189.7641489379115</v>
+        <v>189.7641489379116</v>
       </c>
       <c r="U12" t="n">
         <v>225.7716228901656</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8277092329558</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>19.64857772845377</v>
+        <v>90.39504242576876</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>80.02490009773561</v>
+        <v>80.0249000977357</v>
       </c>
       <c r="S13" t="n">
         <v>186.3166995770704</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.7025261647688</v>
       </c>
       <c r="U13" t="n">
         <v>286.2010328041907</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>1.701084605939404</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>332.4423155261914</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001842</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>114.2182354945811</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>7.22081539149452</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>51.90812185161015</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
@@ -2020,7 +2020,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>65.09397967394412</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045434</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876462</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>81.37259901119252</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>40.45252083328975</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>87.87204604346185</v>
+        <v>9.434273714503052</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
         <v>140.4539897919539</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2530,7 +2530,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124.6368679942809</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>97.1690344924848</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710052</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127574</v>
       </c>
       <c r="H29" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,22 +2843,22 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374742</v>
+        <v>199.197056837474</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876462</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5420528771668</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919538</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440888</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>23.89867717507972</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4819944627617</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1854515484202</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>43.19268536537297</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>379.1415897965313</v>
       </c>
       <c r="C32" t="n">
-        <v>361.6806399040584</v>
+        <v>361.6806399040583</v>
       </c>
       <c r="D32" t="n">
         <v>351.0907897537337</v>
@@ -3041,7 +3041,7 @@
         <v>403.2837938747622</v>
       </c>
       <c r="G32" t="n">
-        <v>406.2510241458084</v>
+        <v>406.2510241458083</v>
       </c>
       <c r="H32" t="n">
         <v>279.9708401375951</v>
@@ -3086,7 +3086,7 @@
         <v>247.3166441206971</v>
       </c>
       <c r="V32" t="n">
-        <v>324.1600066031857</v>
+        <v>324.1600066031856</v>
       </c>
       <c r="W32" t="n">
         <v>345.6487168504638</v>
@@ -3095,7 +3095,7 @@
         <v>366.1388488115198</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.6456867891044</v>
+        <v>382.6456867891043</v>
       </c>
     </row>
     <row r="33">
@@ -3202,10 +3202,10 @@
         <v>161.9498010102177</v>
       </c>
       <c r="H34" t="n">
-        <v>136.8617379250047</v>
+        <v>132.1269181270553</v>
       </c>
       <c r="I34" t="n">
-        <v>78.21232487745979</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>63.58849972413432</v>
       </c>
       <c r="S34" t="n">
-        <v>94.7990918161014</v>
+        <v>177.7462364915097</v>
       </c>
       <c r="T34" t="n">
         <v>213.8897425958126</v>
@@ -3247,7 +3247,7 @@
         <v>248.5453914568788</v>
       </c>
       <c r="W34" t="n">
-        <v>282.9307464696418</v>
+        <v>282.9307464696417</v>
       </c>
       <c r="X34" t="n">
         <v>222.1174035220879</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>379.1415897965313</v>
+        <v>379.1415897965312</v>
       </c>
       <c r="C35" t="n">
-        <v>361.6806399040584</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D35" t="n">
-        <v>351.0907897537337</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E35" t="n">
-        <v>378.3381182053125</v>
+        <v>378.3381182053124</v>
       </c>
       <c r="F35" t="n">
-        <v>403.2837938747622</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G35" t="n">
-        <v>406.2510241458083</v>
+        <v>406.2510241458082</v>
       </c>
       <c r="H35" t="n">
-        <v>279.9708401375951</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>81.02033873387039</v>
+        <v>81.02033873387026</v>
       </c>
       <c r="T35" t="n">
-        <v>195.6048049705249</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U35" t="n">
-        <v>247.3166441206971</v>
+        <v>247.3166441206969</v>
       </c>
       <c r="V35" t="n">
-        <v>324.1600066031857</v>
+        <v>324.1600066031855</v>
       </c>
       <c r="W35" t="n">
-        <v>345.6487168504638</v>
+        <v>345.6487168504636</v>
       </c>
       <c r="X35" t="n">
-        <v>366.1388488115198</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.6456867891044</v>
+        <v>382.6456867891042</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>176.2397283149881</v>
+        <v>176.2397283149879</v>
       </c>
       <c r="C37" t="n">
-        <v>163.6545692316786</v>
+        <v>158.9197494337326</v>
       </c>
       <c r="D37" t="n">
-        <v>145.0232211512631</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>142.8417107796199</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>161.9498010102177</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H37" t="n">
-        <v>136.8617379250047</v>
+        <v>136.8617379250045</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>63.58849972413419</v>
       </c>
       <c r="S37" t="n">
-        <v>170.8523880088996</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T37" t="n">
-        <v>213.8897425958126</v>
+        <v>213.8897425958124</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5931996814712</v>
+        <v>282.593199681471</v>
       </c>
       <c r="V37" t="n">
-        <v>248.5453914568788</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W37" t="n">
-        <v>282.9307464696418</v>
+        <v>282.9307464696416</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y37" t="n">
-        <v>214.9924014851456</v>
+        <v>214.9924014851454</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>379.1415897965313</v>
+        <v>379.1415897965312</v>
       </c>
       <c r="C38" t="n">
-        <v>361.6806399040584</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D38" t="n">
-        <v>351.0907897537337</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E38" t="n">
-        <v>378.3381182053125</v>
+        <v>378.3381182053124</v>
       </c>
       <c r="F38" t="n">
-        <v>403.2837938747622</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G38" t="n">
-        <v>406.2510241458074</v>
+        <v>406.2510241458082</v>
       </c>
       <c r="H38" t="n">
-        <v>279.9708401375951</v>
+        <v>279.9708401375967</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.02033873387039</v>
+        <v>81.02033873387028</v>
       </c>
       <c r="T38" t="n">
-        <v>195.6048049705249</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U38" t="n">
-        <v>247.3166441206971</v>
+        <v>247.3166441206969</v>
       </c>
       <c r="V38" t="n">
-        <v>324.1600066031857</v>
+        <v>324.1600066031855</v>
       </c>
       <c r="W38" t="n">
-        <v>345.6487168504638</v>
+        <v>345.6487168504636</v>
       </c>
       <c r="X38" t="n">
-        <v>366.1388488115198</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y38" t="n">
-        <v>382.6456867891044</v>
+        <v>382.6456867891042</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>176.2397283149881</v>
+        <v>176.2397283149879</v>
       </c>
       <c r="C40" t="n">
-        <v>163.6545692316786</v>
+        <v>163.6545692316785</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>142.8417107796199</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>141.828796155982</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>161.9498010102177</v>
+        <v>161.9498010102176</v>
       </c>
       <c r="H40" t="n">
-        <v>136.8617379250047</v>
+        <v>136.8617379250045</v>
       </c>
       <c r="I40" t="n">
-        <v>78.21232487745979</v>
+        <v>78.21232487745966</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.58849972413432</v>
+        <v>63.58849972413419</v>
       </c>
       <c r="S40" t="n">
-        <v>93.05933135014068</v>
+        <v>94.79909181610356</v>
       </c>
       <c r="T40" t="n">
-        <v>213.8897425958126</v>
+        <v>213.8897425958124</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5931996814712</v>
+        <v>282.593199681471</v>
       </c>
       <c r="V40" t="n">
-        <v>248.5453914568788</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>282.9307464696416</v>
       </c>
       <c r="X40" t="n">
-        <v>222.1174035220879</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y40" t="n">
-        <v>214.9924014851456</v>
+        <v>214.9924014851454</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>379.1415897965313</v>
+        <v>379.1415897965312</v>
       </c>
       <c r="C41" t="n">
-        <v>361.6806399040583</v>
+        <v>361.6806399040582</v>
       </c>
       <c r="D41" t="n">
-        <v>351.0907897537337</v>
+        <v>351.0907897537336</v>
       </c>
       <c r="E41" t="n">
-        <v>378.3381182053125</v>
+        <v>378.3381182053124</v>
       </c>
       <c r="F41" t="n">
-        <v>403.2837938747622</v>
+        <v>403.2837938747621</v>
       </c>
       <c r="G41" t="n">
-        <v>406.2510241458083</v>
+        <v>406.2510241458082</v>
       </c>
       <c r="H41" t="n">
-        <v>279.9708401375951</v>
+        <v>279.970840137595</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.02033873387002</v>
+        <v>81.02033873387022</v>
       </c>
       <c r="T41" t="n">
-        <v>195.6048049705249</v>
+        <v>195.6048049705248</v>
       </c>
       <c r="U41" t="n">
-        <v>247.3166441206971</v>
+        <v>247.3166441206969</v>
       </c>
       <c r="V41" t="n">
-        <v>324.1600066031856</v>
+        <v>324.1600066031855</v>
       </c>
       <c r="W41" t="n">
-        <v>345.6487168504638</v>
+        <v>345.6487168504636</v>
       </c>
       <c r="X41" t="n">
-        <v>366.1388488115198</v>
+        <v>366.1388488115197</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.6456867891043</v>
+        <v>382.6456867891042</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>176.2397283149881</v>
+        <v>176.2397283149879</v>
       </c>
       <c r="C43" t="n">
-        <v>163.6545692316786</v>
+        <v>163.6545692316784</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>161.9498010102177</v>
+        <v>79.00265633481216</v>
       </c>
       <c r="H43" t="n">
-        <v>136.8617379250047</v>
+        <v>136.8617379250045</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>78.21232487745962</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.58849972413432</v>
+        <v>63.58849972413415</v>
       </c>
       <c r="S43" t="n">
-        <v>177.7462364915097</v>
+        <v>177.7462364915096</v>
       </c>
       <c r="T43" t="n">
-        <v>213.8897425958126</v>
+        <v>213.8897425958124</v>
       </c>
       <c r="U43" t="n">
-        <v>277.8583798835215</v>
+        <v>282.593199681471</v>
       </c>
       <c r="V43" t="n">
-        <v>248.5453914568788</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W43" t="n">
-        <v>282.9307464696417</v>
+        <v>282.9307464696416</v>
       </c>
       <c r="X43" t="n">
-        <v>222.1174035220879</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y43" t="n">
-        <v>214.9924014851456</v>
+        <v>214.9924014851454</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.02033873387039</v>
+        <v>81.02033873387036</v>
       </c>
       <c r="T44" t="n">
         <v>195.6048049705249</v>
       </c>
       <c r="U44" t="n">
-        <v>247.3166441206971</v>
+        <v>247.316644120697</v>
       </c>
       <c r="V44" t="n">
         <v>324.1600066031856</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>176.2397283149881</v>
+        <v>176.239728314988</v>
       </c>
       <c r="C46" t="n">
         <v>163.6545692316786</v>
       </c>
       <c r="D46" t="n">
-        <v>145.0232211512631</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>142.8417107796199</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>141.828796155982</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>161.9498010102177</v>
       </c>
       <c r="H46" t="n">
-        <v>105.7177272660525</v>
+        <v>136.8617379250047</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>63.5884997241343</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>177.7462364915097</v>
       </c>
       <c r="T46" t="n">
-        <v>213.8897425958126</v>
+        <v>213.8897425958125</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5931996814712</v>
+        <v>277.8583798835215</v>
       </c>
       <c r="V46" t="n">
-        <v>248.5453914568788</v>
+        <v>248.5453914568787</v>
       </c>
       <c r="W46" t="n">
         <v>282.9307464696417</v>
@@ -4201,7 +4201,7 @@
         <v>222.1174035220879</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.9924014851456</v>
+        <v>214.9924014851455</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="C2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="D2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="E2" t="n">
-        <v>75.41915764515163</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="F2" t="n">
+        <v>60.24866940125354</v>
+      </c>
+      <c r="G2" t="n">
         <v>41.13641777246947</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6.853677899787311</v>
       </c>
       <c r="H2" t="n">
         <v>6.853677899787311</v>
@@ -4331,16 +4331,16 @@
         <v>2.715192997916426</v>
       </c>
       <c r="K2" t="n">
-        <v>2.715192997916426</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L2" t="n">
-        <v>36.31570634713221</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="M2" t="n">
-        <v>69.91621969634798</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="N2" t="n">
-        <v>69.91621969634798</v>
+        <v>102.1591365466055</v>
       </c>
       <c r="O2" t="n">
         <v>102.1591365466055</v>
@@ -4352,28 +4352,28 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R2" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="S2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="T2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="U2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="V2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="W2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="X2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="Y2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="C3" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="D3" t="n">
+        <v>101.4769100231392</v>
+      </c>
+      <c r="E3" t="n">
+        <v>71.28067274328075</v>
+      </c>
+      <c r="F3" t="n">
+        <v>71.28067274328075</v>
+      </c>
+      <c r="G3" t="n">
+        <v>71.28067274328075</v>
+      </c>
+      <c r="H3" t="n">
         <v>36.99793287059858</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.715192997916426</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.715192997916426</v>
       </c>
       <c r="I3" t="n">
         <v>2.715192997916426</v>
@@ -4440,19 +4440,19 @@
         <v>135.7596498958213</v>
       </c>
       <c r="U3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="V3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="W3" t="n">
-        <v>67.19417015045701</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="X3" t="n">
-        <v>67.19417015045701</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="Y3" t="n">
-        <v>36.99793287059858</v>
+        <v>135.7596498958213</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88.90491468137789</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="C4" t="n">
-        <v>88.90491468137789</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="D4" t="n">
-        <v>88.90491468137789</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="E4" t="n">
-        <v>88.90491468137789</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="F4" t="n">
-        <v>54.62217480869573</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="G4" t="n">
-        <v>54.62217480869573</v>
+        <v>20.33943493601357</v>
       </c>
       <c r="H4" t="n">
         <v>20.33943493601357</v>
@@ -4507,7 +4507,7 @@
         <v>135.7596498958213</v>
       </c>
       <c r="Q4" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="R4" t="n">
         <v>101.4769100231392</v>
@@ -4522,16 +4522,16 @@
         <v>101.4769100231392</v>
       </c>
       <c r="V4" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="W4" t="n">
-        <v>88.90491468137789</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="X4" t="n">
-        <v>88.90491468137789</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="Y4" t="n">
-        <v>88.90491468137789</v>
+        <v>32.91143027777485</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.26334608731877</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C5" t="n">
-        <v>57.26334608731877</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="D5" t="n">
-        <v>57.26334608731877</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="E5" t="n">
-        <v>57.26334608731877</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="F5" t="n">
-        <v>18.39358462996717</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="G5" t="n">
         <v>3.078485107422247</v>
@@ -4571,13 +4571,13 @@
         <v>41.17473831177255</v>
       </c>
       <c r="L5" t="n">
-        <v>79.27099151612285</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="M5" t="n">
-        <v>117.3672447204732</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="N5" t="n">
-        <v>153.9242553711123</v>
+        <v>115.828002166762</v>
       </c>
       <c r="O5" t="n">
         <v>153.9242553711123</v>
@@ -4592,25 +4592,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T5" t="n">
-        <v>57.26334608731877</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U5" t="n">
-        <v>57.26334608731877</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V5" t="n">
-        <v>57.26334608731877</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W5" t="n">
-        <v>57.26334608731877</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X5" t="n">
-        <v>57.26334608731877</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y5" t="n">
-        <v>57.26334608731877</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76.18473245640914</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="C6" t="n">
-        <v>76.18473245640914</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="D6" t="n">
-        <v>37.31497099905754</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="E6" t="n">
-        <v>37.31497099905754</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="F6" t="n">
         <v>3.078485107422247</v>
@@ -4671,25 +4671,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S6" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T6" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U6" t="n">
         <v>76.18473245640914</v>
       </c>
       <c r="V6" t="n">
-        <v>76.18473245640914</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="W6" t="n">
-        <v>76.18473245640914</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="X6" t="n">
-        <v>76.18473245640914</v>
+        <v>37.31497099905754</v>
       </c>
       <c r="Y6" t="n">
-        <v>76.18473245640914</v>
+        <v>3.078485107422247</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.18473245640914</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="C7" t="n">
-        <v>76.18473245640914</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="D7" t="n">
-        <v>76.18473245640914</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="E7" t="n">
-        <v>76.18473245640914</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="F7" t="n">
-        <v>76.18473245640914</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="G7" t="n">
-        <v>57.03132802508901</v>
+        <v>95.90108948244061</v>
       </c>
       <c r="H7" t="n">
         <v>57.03132802508901</v>
@@ -4750,25 +4750,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S7" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T7" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U7" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V7" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W7" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X7" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y7" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>599.3608119243095</v>
+        <v>755.9863595107493</v>
       </c>
       <c r="C8" t="n">
-        <v>403.3741046642189</v>
+        <v>755.9863595107493</v>
       </c>
       <c r="D8" t="n">
-        <v>403.3741046642189</v>
+        <v>500.2032596105327</v>
       </c>
       <c r="E8" t="n">
-        <v>403.3741046642189</v>
+        <v>244.4201597103162</v>
       </c>
       <c r="F8" t="n">
-        <v>396.4286039150154</v>
+        <v>237.4746589611127</v>
       </c>
       <c r="G8" t="n">
-        <v>140.6455040147979</v>
+        <v>20.25802151209715</v>
       </c>
       <c r="H8" t="n">
-        <v>140.6455040147979</v>
+        <v>20.25802151209715</v>
       </c>
       <c r="I8" t="n">
-        <v>20.25802151209722</v>
+        <v>20.25802151209715</v>
       </c>
       <c r="J8" t="n">
-        <v>112.791637105423</v>
+        <v>112.7916371054279</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1088552935304</v>
+        <v>193.1088552935343</v>
       </c>
       <c r="L8" t="n">
-        <v>329.6512284480687</v>
+        <v>329.6512284480713</v>
       </c>
       <c r="M8" t="n">
-        <v>513.2503649253075</v>
+        <v>513.2503649253088</v>
       </c>
       <c r="N8" t="n">
-        <v>704.4341357565686</v>
+        <v>704.4341357565685</v>
       </c>
       <c r="O8" t="n">
-        <v>871.6282879716081</v>
+        <v>871.6282879716066</v>
       </c>
       <c r="P8" t="n">
-        <v>979.8236278547676</v>
+        <v>979.8236278547648</v>
       </c>
       <c r="Q8" t="n">
-        <v>1012.901075604861</v>
+        <v>1012.901075604857</v>
       </c>
       <c r="R8" t="n">
-        <v>1011.76945941097</v>
+        <v>1011.769459410966</v>
       </c>
       <c r="S8" t="n">
-        <v>855.1439118245269</v>
+        <v>1011.769459410966</v>
       </c>
       <c r="T8" t="n">
-        <v>855.1439118245269</v>
+        <v>1011.769459410966</v>
       </c>
       <c r="U8" t="n">
-        <v>855.1439118245269</v>
+        <v>1011.769459410966</v>
       </c>
       <c r="V8" t="n">
-        <v>855.1439118245269</v>
+        <v>1011.769459410966</v>
       </c>
       <c r="W8" t="n">
-        <v>855.1439118245269</v>
+        <v>1011.769459410966</v>
       </c>
       <c r="X8" t="n">
-        <v>599.3608119243095</v>
+        <v>755.9863595107493</v>
       </c>
       <c r="Y8" t="n">
-        <v>599.3608119243095</v>
+        <v>755.9863595107493</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>502.882915459931</v>
+        <v>65.81034328586287</v>
       </c>
       <c r="C9" t="n">
-        <v>328.429886178804</v>
+        <v>20.25802151209715</v>
       </c>
       <c r="D9" t="n">
-        <v>179.4954765175527</v>
+        <v>20.25802151209715</v>
       </c>
       <c r="E9" t="n">
-        <v>20.25802151209722</v>
+        <v>20.25802151209715</v>
       </c>
       <c r="F9" t="n">
-        <v>20.25802151209722</v>
+        <v>20.25802151209715</v>
       </c>
       <c r="G9" t="n">
-        <v>20.25802151209722</v>
+        <v>20.25802151209715</v>
       </c>
       <c r="H9" t="n">
-        <v>20.25802151209722</v>
+        <v>20.25802151209715</v>
       </c>
       <c r="I9" t="n">
-        <v>20.25802151209722</v>
+        <v>20.25802151209715</v>
       </c>
       <c r="J9" t="n">
-        <v>20.25802151209722</v>
+        <v>20.25802151209715</v>
       </c>
       <c r="K9" t="n">
-        <v>86.34037297712086</v>
+        <v>218.7378053036042</v>
       </c>
       <c r="L9" t="n">
-        <v>221.5187907456873</v>
+        <v>353.9162230721697</v>
       </c>
       <c r="M9" t="n">
-        <v>398.6224964998163</v>
+        <v>531.0199288262976</v>
       </c>
       <c r="N9" t="n">
-        <v>594.8222552724807</v>
+        <v>727.2196875989608</v>
       </c>
       <c r="O9" t="n">
-        <v>752.086908616609</v>
+        <v>884.484340943088</v>
       </c>
       <c r="P9" t="n">
-        <v>858.9725913787439</v>
+        <v>991.3700237052221</v>
       </c>
       <c r="Q9" t="n">
-        <v>1012.901075604861</v>
+        <v>1012.901075604857</v>
       </c>
       <c r="R9" t="n">
-        <v>1012.901075604861</v>
+        <v>991.1907300662771</v>
       </c>
       <c r="S9" t="n">
-        <v>992.2723804198754</v>
+        <v>991.1907300662771</v>
       </c>
       <c r="T9" t="n">
-        <v>992.2723804198754</v>
+        <v>991.1907300662771</v>
       </c>
       <c r="U9" t="n">
-        <v>992.2723804198754</v>
+        <v>763.05130845134</v>
       </c>
       <c r="V9" t="n">
-        <v>757.1202721881327</v>
+        <v>527.8992002195973</v>
       </c>
       <c r="W9" t="n">
-        <v>502.882915459931</v>
+        <v>273.6618434913957</v>
       </c>
       <c r="X9" t="n">
-        <v>502.882915459931</v>
+        <v>65.81034328586287</v>
       </c>
       <c r="Y9" t="n">
-        <v>502.882915459931</v>
+        <v>65.81034328586287</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.8729472930623</v>
+        <v>317.7850943163852</v>
       </c>
       <c r="C10" t="n">
-        <v>188.8729472930623</v>
+        <v>317.7850943163852</v>
       </c>
       <c r="D10" t="n">
-        <v>188.8729472930623</v>
+        <v>317.7850943163852</v>
       </c>
       <c r="E10" t="n">
-        <v>188.8729472930623</v>
+        <v>317.7850943163852</v>
       </c>
       <c r="F10" t="n">
-        <v>188.8729472930623</v>
+        <v>317.7850943163852</v>
       </c>
       <c r="G10" t="n">
-        <v>20.25802151209722</v>
+        <v>317.7850943163852</v>
       </c>
       <c r="H10" t="n">
-        <v>20.25802151209722</v>
+        <v>163.4586057682519</v>
       </c>
       <c r="I10" t="n">
-        <v>20.25802151209722</v>
+        <v>38.70392015929811</v>
       </c>
       <c r="J10" t="n">
-        <v>20.25802151209722</v>
+        <v>20.25802151209715</v>
       </c>
       <c r="K10" t="n">
-        <v>120.3857947210602</v>
+        <v>120.3857947210596</v>
       </c>
       <c r="L10" t="n">
-        <v>304.0413062457262</v>
+        <v>304.0413062457251</v>
       </c>
       <c r="M10" t="n">
-        <v>508.0694158401633</v>
+        <v>508.0694158401616</v>
       </c>
       <c r="N10" t="n">
-        <v>712.6808094355454</v>
+        <v>712.6808094355431</v>
       </c>
       <c r="O10" t="n">
-        <v>885.6562532201076</v>
+        <v>885.6562532201048</v>
       </c>
       <c r="P10" t="n">
-        <v>1010.145945580229</v>
+        <v>1010.145945580226</v>
       </c>
       <c r="Q10" t="n">
-        <v>1012.901075604861</v>
+        <v>1012.901075604857</v>
       </c>
       <c r="R10" t="n">
-        <v>1012.901075604861</v>
+        <v>1012.901075604857</v>
       </c>
       <c r="S10" t="n">
-        <v>1012.901075604861</v>
+        <v>1012.901075604857</v>
       </c>
       <c r="T10" t="n">
-        <v>1012.901075604861</v>
+        <v>1012.901075604857</v>
       </c>
       <c r="U10" t="n">
-        <v>1012.901075604861</v>
+        <v>801.5577451146191</v>
       </c>
       <c r="V10" t="n">
-        <v>758.2165873989742</v>
+        <v>801.5577451146191</v>
       </c>
       <c r="W10" t="n">
-        <v>502.4334874987567</v>
+        <v>545.7746452144025</v>
       </c>
       <c r="X10" t="n">
-        <v>274.4439366007394</v>
+        <v>317.7850943163852</v>
       </c>
       <c r="Y10" t="n">
-        <v>274.4439366007394</v>
+        <v>317.7850943163852</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1629.72372395115</v>
+        <v>2333.724723400519</v>
       </c>
       <c r="C11" t="n">
-        <v>1260.761207010738</v>
+        <v>1964.762206460107</v>
       </c>
       <c r="D11" t="n">
-        <v>902.4955084039875</v>
+        <v>1606.496507853356</v>
       </c>
       <c r="E11" t="n">
-        <v>516.7072558057433</v>
+        <v>1220.708255255112</v>
       </c>
       <c r="F11" t="n">
-        <v>516.7072558057433</v>
+        <v>809.7223504655044</v>
       </c>
       <c r="G11" t="n">
-        <v>102.0808943343939</v>
+        <v>395.0959889941549</v>
       </c>
       <c r="H11" t="n">
-        <v>102.0808943343939</v>
+        <v>102.080894334394</v>
       </c>
       <c r="I11" t="n">
-        <v>77.28182955043508</v>
+        <v>77.28182955043498</v>
       </c>
       <c r="J11" t="n">
-        <v>303.2687416573984</v>
+        <v>303.2687416573981</v>
       </c>
       <c r="K11" t="n">
-        <v>692.7030600880748</v>
+        <v>692.7030600880739</v>
       </c>
       <c r="L11" t="n">
-        <v>1212.732530097298</v>
+        <v>1212.732530097297</v>
       </c>
       <c r="M11" t="n">
-        <v>1823.034951878374</v>
+        <v>1823.034951878372</v>
       </c>
       <c r="N11" t="n">
-        <v>2447.826513274239</v>
+        <v>2447.826513274236</v>
       </c>
       <c r="O11" t="n">
-        <v>3024.4642064501</v>
+        <v>3024.464206450097</v>
       </c>
       <c r="P11" t="n">
-        <v>3482.11013573221</v>
+        <v>3482.110135732205</v>
       </c>
       <c r="Q11" t="n">
-        <v>3777.610422894032</v>
+        <v>3777.610422894028</v>
       </c>
       <c r="R11" t="n">
-        <v>3864.091477521754</v>
+        <v>3864.091477521749</v>
       </c>
       <c r="S11" t="n">
-        <v>3763.966054927615</v>
+        <v>3763.96605492761</v>
       </c>
       <c r="T11" t="n">
-        <v>3717.254986497319</v>
+        <v>3559.941060524528</v>
       </c>
       <c r="U11" t="n">
-        <v>3463.760196865848</v>
+        <v>3306.446270893057</v>
       </c>
       <c r="V11" t="n">
-        <v>3132.697309522277</v>
+        <v>2975.383383549486</v>
       </c>
       <c r="W11" t="n">
-        <v>2779.928654252163</v>
+        <v>2622.614728279372</v>
       </c>
       <c r="X11" t="n">
-        <v>2406.462895991083</v>
+        <v>2333.724723400519</v>
       </c>
       <c r="Y11" t="n">
-        <v>2016.323564015271</v>
+        <v>2333.724723400519</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>176.2682253439306</v>
       </c>
       <c r="H12" t="n">
-        <v>88.07146269170184</v>
+        <v>88.07146269170183</v>
       </c>
       <c r="I12" t="n">
-        <v>77.28182955043508</v>
+        <v>77.28182955043498</v>
       </c>
       <c r="J12" t="n">
-        <v>91.81233402499566</v>
+        <v>193.0602392790136</v>
       </c>
       <c r="K12" t="n">
-        <v>91.81233402499566</v>
+        <v>469.0988071438609</v>
       </c>
       <c r="L12" t="n">
-        <v>509.3027949495306</v>
+        <v>886.5892680683953</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.851339267851</v>
+        <v>1393.137812386715</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.215361187789</v>
+        <v>1927.501834306652</v>
       </c>
       <c r="O12" t="n">
         <v>2016.834249560335</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>581.4808908702399</v>
+        <v>466.6196862075566</v>
       </c>
       <c r="C13" t="n">
-        <v>412.5447079423328</v>
+        <v>466.6196862075566</v>
       </c>
       <c r="D13" t="n">
-        <v>412.5447079423328</v>
+        <v>316.5030467952208</v>
       </c>
       <c r="E13" t="n">
-        <v>264.6316143599397</v>
+        <v>168.5899532128277</v>
       </c>
       <c r="F13" t="n">
-        <v>264.6316143599397</v>
+        <v>168.5899532128277</v>
       </c>
       <c r="G13" t="n">
-        <v>97.12887776099444</v>
+        <v>168.5899532128277</v>
       </c>
       <c r="H13" t="n">
-        <v>97.12887776099444</v>
+        <v>168.5899532128277</v>
       </c>
       <c r="I13" t="n">
-        <v>77.28182955043508</v>
+        <v>77.28182955043498</v>
       </c>
       <c r="J13" t="n">
-        <v>136.2700071292589</v>
+        <v>136.2700071292587</v>
       </c>
       <c r="K13" t="n">
-        <v>363.0425400569874</v>
+        <v>363.0425400569869</v>
       </c>
       <c r="L13" t="n">
-        <v>708.7597417569816</v>
+        <v>708.7597417569808</v>
       </c>
       <c r="M13" t="n">
-        <v>1083.659180915634</v>
+        <v>1083.659180915633</v>
       </c>
       <c r="N13" t="n">
-        <v>1455.078965774396</v>
+        <v>1455.078965774394</v>
       </c>
       <c r="O13" t="n">
-        <v>1782.128957611177</v>
+        <v>1782.128957611176</v>
       </c>
       <c r="P13" t="n">
-        <v>2038.456043030646</v>
+        <v>2038.456043030645</v>
       </c>
       <c r="Q13" t="n">
-        <v>2132.48855034554</v>
+        <v>2132.488550345539</v>
       </c>
       <c r="R13" t="n">
-        <v>2051.655317923585</v>
+        <v>2051.655317923583</v>
       </c>
       <c r="S13" t="n">
-        <v>1863.4566314821</v>
+        <v>1863.456631482098</v>
       </c>
       <c r="T13" t="n">
-        <v>1863.4566314821</v>
+        <v>1642.544988891423</v>
       </c>
       <c r="U13" t="n">
-        <v>1574.364679154635</v>
+        <v>1353.453036563958</v>
       </c>
       <c r="V13" t="n">
-        <v>1319.680190948748</v>
+        <v>1098.768548358071</v>
       </c>
       <c r="W13" t="n">
-        <v>1030.263020911787</v>
+        <v>1097.050281079344</v>
       </c>
       <c r="X13" t="n">
-        <v>802.2734700137701</v>
+        <v>869.0607301813266</v>
       </c>
       <c r="Y13" t="n">
-        <v>581.4808908702399</v>
+        <v>648.2681510377963</v>
       </c>
     </row>
     <row r="14">
@@ -5267,61 +5267,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608066</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251937</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128756</v>
+        <v>841.9378825128774</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018653</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874797</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.62987785606</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,25 +5343,25 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608054</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608054</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072585</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="M15" t="n">
         <v>733.6583989593863</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.38528403403</v>
+        <v>781.5360075237305</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061234</v>
+        <v>781.5360075237305</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937879</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="E16" t="n">
         <v>631.4193681113948</v>
@@ -5431,55 +5431,55 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
         <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693321</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856734</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410169</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.205584149098</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="T16" t="n">
-        <v>2025.52680186348</v>
+        <v>2245.144474323638</v>
       </c>
       <c r="U16" t="n">
-        <v>2025.52680186348</v>
+        <v>1956.068260638365</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.233048942778</v>
+        <v>1701.383772432478</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905817</v>
+        <v>1411.966602395518</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>1183.9770514975</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>963.1844723539704</v>
       </c>
     </row>
     <row r="17">
@@ -5501,19 +5501,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K17" t="n">
         <v>842.974607438402</v>
@@ -5537,10 +5537,10 @@
         <v>4515.534099052815</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
@@ -5586,28 +5586,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L18" t="n">
-        <v>584.5806809953584</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.599035247486</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N18" t="n">
-        <v>1798.694998646823</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.571473647017</v>
+        <v>2201.632234562885</v>
       </c>
       <c r="P18" t="n">
         <v>2553.812354695766</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.5128849845606</v>
+        <v>1004.964507776404</v>
       </c>
       <c r="C19" t="n">
-        <v>615.5767020566537</v>
+        <v>836.0283248484973</v>
       </c>
       <c r="D19" t="n">
-        <v>615.5767020566537</v>
+        <v>685.9116854361615</v>
       </c>
       <c r="E19" t="n">
-        <v>615.5767020566537</v>
+        <v>537.9985918537684</v>
       </c>
       <c r="F19" t="n">
-        <v>468.6867545587434</v>
+        <v>485.5661455390107</v>
       </c>
       <c r="G19" t="n">
-        <v>301.4725597333222</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H19" t="n">
-        <v>159.5998427717526</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117248</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L19" t="n">
-        <v>820.221016094859</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
         <v>1239.450608139318</v>
@@ -5689,34 +5689,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294195</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
         <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747509</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062235</v>
+        <v>1958.704181747509</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856348</v>
+        <v>1704.019693541622</v>
       </c>
       <c r="W19" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.602523504661</v>
       </c>
       <c r="X19" t="n">
-        <v>1186.95392895833</v>
+        <v>1186.612972606644</v>
       </c>
       <c r="Y19" t="n">
-        <v>966.1613498148004</v>
+        <v>1186.612972606644</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160703</v>
@@ -5783,19 +5783,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>302.0892292003568</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L21" t="n">
-        <v>792.8215620441082</v>
+        <v>920.1145186182265</v>
       </c>
       <c r="M21" t="n">
-        <v>1384.839916296236</v>
+        <v>1512.132872870354</v>
       </c>
       <c r="N21" t="n">
-        <v>2006.935879695572</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P21" t="n">
         <v>2553.812354695766</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476</v>
+        <v>637.4047730538316</v>
       </c>
       <c r="C22" t="n">
-        <v>326.1595320196931</v>
+        <v>468.4685901259247</v>
       </c>
       <c r="D22" t="n">
-        <v>176.0428926073573</v>
+        <v>318.351950713589</v>
       </c>
       <c r="E22" t="n">
-        <v>176.0428926073573</v>
+        <v>318.351950713589</v>
       </c>
       <c r="F22" t="n">
-        <v>176.0428926073573</v>
+        <v>318.351950713589</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160703</v>
+        <v>318.351950713589</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520194</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160703</v>
@@ -5914,7 +5914,7 @@
         <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948588</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
         <v>1239.450608139318</v>
@@ -5926,34 +5926,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294195</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033126</v>
+        <v>2320.692022139358</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>2101.013239853739</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>1811.937026168466</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856348</v>
+        <v>1557.252537962579</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819387</v>
+        <v>1267.835367925619</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213698</v>
+        <v>1039.845817027601</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778397</v>
+        <v>819.0532378840713</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C23" t="n">
         <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E23" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
         <v>794.2588208963562</v>
@@ -5987,19 +5987,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K23" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O23" t="n">
         <v>3654.445485610258</v>
@@ -6020,19 +6020,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>243.9627910411614</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>734.6951238849127</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>734.6951238849127</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284249</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>852.0312736743723</v>
+        <v>495.0957149475998</v>
       </c>
       <c r="C25" t="n">
-        <v>763.271631206229</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="D25" t="n">
-        <v>613.1549917938933</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="E25" t="n">
-        <v>465.2418982115001</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="F25" t="n">
-        <v>318.3519507135898</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135898</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520201</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6166,31 +6166,31 @@
         <v>2311.699365782259</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335694</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074624</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>2026.563526789007</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1771.87903858312</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1482.461868546159</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>1254.472317648142</v>
+        <v>897.5367589213696</v>
       </c>
       <c r="Y25" t="n">
-        <v>1033.679738504612</v>
+        <v>676.7441797778395</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6212,10 +6212,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160703</v>
@@ -6257,19 +6257,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6303,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>915.0894235587172</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>1507.107777810845</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.203741210181</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O27" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
         <v>2553.812354695766</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>550.8483535209909</v>
+        <v>678.2659052086701</v>
       </c>
       <c r="C28" t="n">
-        <v>550.8483535209909</v>
+        <v>509.3297222807632</v>
       </c>
       <c r="D28" t="n">
-        <v>550.8483535209909</v>
+        <v>359.213082868427</v>
       </c>
       <c r="E28" t="n">
-        <v>402.9352599385978</v>
+        <v>359.213082868427</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G28" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H28" t="n">
         <v>93.84834815160703</v>
@@ -6382,13 +6382,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117248</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
-        <v>820.221016094859</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
         <v>1239.450608139318</v>
@@ -6400,34 +6400,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335694</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294195</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033126</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747508</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062235</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856348</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.526309819388</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213704</v>
+        <v>1080.70694918244</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778403</v>
+        <v>859.9143700389097</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831367</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890957</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6449,64 +6449,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160697</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160697</v>
       </c>
       <c r="J29" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015169</v>
       </c>
       <c r="K29" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287891988</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294974</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234011</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151117</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297604</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.33362040361</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580348</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347197</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026517</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746066</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402496</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.46612413238</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.0003658713</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895488</v>
       </c>
     </row>
     <row r="30">
@@ -6525,22 +6525,22 @@
         <v>620.2734024870304</v>
       </c>
       <c r="E30" t="n">
-        <v>461.0359474815749</v>
+        <v>461.0359474815748</v>
       </c>
       <c r="F30" t="n">
-        <v>314.5013895084599</v>
+        <v>314.5013895084598</v>
       </c>
       <c r="G30" t="n">
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160697</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160697</v>
       </c>
       <c r="J30" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K30" t="n">
         <v>572.0050724668117</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.9184063975737</v>
+        <v>930.4858260316491</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9822234696668</v>
+        <v>930.4858260316491</v>
       </c>
       <c r="D31" t="n">
-        <v>555.865584057331</v>
+        <v>780.3691866193135</v>
       </c>
       <c r="E31" t="n">
-        <v>407.952490474938</v>
+        <v>632.4560930369205</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0625429770278</v>
+        <v>485.5661455390103</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135894</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>176.47923375202</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160697</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117254</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948598</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931026</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946056</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q31" t="n">
         <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S31" t="n">
-        <v>2337.41307633957</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.734294053952</v>
+        <v>2209.733717050078</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.658080368678</v>
+        <v>1920.657503364804</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.973592162791</v>
+        <v>1665.973015158918</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.556422125831</v>
+        <v>1376.555845121957</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.566871227813</v>
+        <v>1332.926870005419</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.566871227813</v>
+        <v>1112.134290861889</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2295.453245469787</v>
+        <v>2295.453245469788</v>
       </c>
       <c r="C32" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.119265768719</v>
       </c>
       <c r="D32" t="n">
         <v>1575.482104401311</v>
@@ -6686,10 +6686,10 @@
         <v>1193.322389042409</v>
       </c>
       <c r="F32" t="n">
-        <v>785.9650214921448</v>
+        <v>785.9650214921446</v>
       </c>
       <c r="G32" t="n">
-        <v>375.6104516478939</v>
+        <v>375.6104516478937</v>
       </c>
       <c r="H32" t="n">
         <v>92.81162322608056</v>
@@ -6707,16 +6707,16 @@
         <v>1461.457663018653</v>
       </c>
       <c r="M32" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N32" t="n">
         <v>2919.747202874796</v>
       </c>
       <c r="O32" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P32" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q32" t="n">
         <v>4514.49737412729</v>
@@ -6731,10 +6731,10 @@
         <v>4361.161824228881</v>
       </c>
       <c r="U32" t="n">
-        <v>4111.347032187772</v>
+        <v>4111.347032187773</v>
       </c>
       <c r="V32" t="n">
-        <v>3783.912682083544</v>
+        <v>3783.912682083545</v>
       </c>
       <c r="W32" t="n">
         <v>3434.772564052773</v>
@@ -6777,25 +6777,25 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J33" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K33" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L33" t="n">
-        <v>141.6400447072585</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M33" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N33" t="n">
-        <v>1355.754362358723</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O33" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q33" t="n">
         <v>2552.77562977024</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>638.9514545840207</v>
+        <v>555.166459962395</v>
       </c>
       <c r="C34" t="n">
-        <v>473.6438088954565</v>
+        <v>389.8588142738311</v>
       </c>
       <c r="D34" t="n">
-        <v>473.6438088954565</v>
+        <v>389.8588142738311</v>
       </c>
       <c r="E34" t="n">
-        <v>473.6438088954565</v>
+        <v>389.8588142738311</v>
       </c>
       <c r="F34" t="n">
-        <v>473.6438088954565</v>
+        <v>389.8588142738311</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0581513093779</v>
+        <v>226.2731566877526</v>
       </c>
       <c r="H34" t="n">
-        <v>171.813971587151</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I34" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J34" t="n">
-        <v>175.3500754639142</v>
+        <v>175.3500754639144</v>
       </c>
       <c r="K34" t="n">
-        <v>438.5351317827576</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L34" t="n">
         <v>829.8532792141716</v>
@@ -6868,7 +6868,7 @@
         <v>1252.639200606911</v>
       </c>
       <c r="N34" t="n">
-        <v>1670.891395746897</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O34" t="n">
         <v>2041.470182110207</v>
@@ -6883,25 +6883,25 @@
         <v>2392.59560139425</v>
       </c>
       <c r="S34" t="n">
-        <v>2296.838942994148</v>
+        <v>2213.053948372522</v>
       </c>
       <c r="T34" t="n">
-        <v>2080.788697947873</v>
+        <v>1997.003703326247</v>
       </c>
       <c r="U34" t="n">
-        <v>1795.341021501942</v>
+        <v>1711.556026880316</v>
       </c>
       <c r="V34" t="n">
-        <v>1544.285070535398</v>
+        <v>1460.500075913772</v>
       </c>
       <c r="W34" t="n">
-        <v>1258.49643773778</v>
+        <v>1174.711443116154</v>
       </c>
       <c r="X34" t="n">
-        <v>1034.135424079105</v>
+        <v>950.3504294574795</v>
       </c>
       <c r="Y34" t="n">
-        <v>816.9713821749177</v>
+        <v>733.1863875532921</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469787</v>
       </c>
       <c r="C35" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768718</v>
       </c>
       <c r="D35" t="n">
         <v>1575.482104401311</v>
@@ -6923,22 +6923,22 @@
         <v>1193.322389042409</v>
       </c>
       <c r="F35" t="n">
-        <v>785.9650214921446</v>
+        <v>785.9650214921444</v>
       </c>
       <c r="G35" t="n">
-        <v>375.6104516478937</v>
+        <v>375.6104516478936</v>
       </c>
       <c r="H35" t="n">
         <v>92.81162322608054</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L35" t="n">
         <v>1461.45766301865</v>
@@ -6953,16 +6953,16 @@
         <v>3602.609239333932</v>
       </c>
       <c r="P35" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R35" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S35" t="n">
-        <v>4558.74243531022</v>
+        <v>4558.742435310219</v>
       </c>
       <c r="T35" t="n">
         <v>4361.161824228881</v>
@@ -6974,13 +6974,13 @@
         <v>3783.912682083545</v>
       </c>
       <c r="W35" t="n">
-        <v>3434.772564052773</v>
+        <v>3434.772564052774</v>
       </c>
       <c r="X35" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031037</v>
       </c>
       <c r="Y35" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294566</v>
       </c>
     </row>
     <row r="36">
@@ -7002,16 +7002,16 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F36" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G36" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H36" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I36" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J36" t="n">
         <v>240.4596049779265</v>
@@ -7029,7 +7029,7 @@
         <v>2275.814998036501</v>
       </c>
       <c r="O36" t="n">
-        <v>2275.814998036501</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P36" t="n">
         <v>2552.77562977024</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>850.7217647389938</v>
+        <v>555.1664599623984</v>
       </c>
       <c r="C37" t="n">
-        <v>685.4141190504295</v>
+        <v>394.6414605343857</v>
       </c>
       <c r="D37" t="n">
-        <v>538.9260168774364</v>
+        <v>394.6414605343857</v>
       </c>
       <c r="E37" t="n">
-        <v>394.6414605343859</v>
+        <v>394.6414605343857</v>
       </c>
       <c r="F37" t="n">
-        <v>394.6414605343859</v>
+        <v>394.6414605343857</v>
       </c>
       <c r="G37" t="n">
-        <v>231.0558029483075</v>
+        <v>231.0558029483074</v>
       </c>
       <c r="H37" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I37" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J37" t="n">
-        <v>175.3500754639142</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K37" t="n">
-        <v>438.5351317827576</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L37" t="n">
-        <v>829.8532792141716</v>
+        <v>829.8532792141719</v>
       </c>
       <c r="M37" t="n">
-        <v>1252.63920060691</v>
+        <v>1252.639200606911</v>
       </c>
       <c r="N37" t="n">
-        <v>1670.891395746897</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O37" t="n">
-        <v>2041.470182110206</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P37" t="n">
         <v>2335.556946294691</v>
@@ -7117,28 +7117,28 @@
         <v>2456.826409196406</v>
       </c>
       <c r="R37" t="n">
-        <v>2456.826409196406</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="S37" t="n">
-        <v>2284.248239490446</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T37" t="n">
-        <v>2068.197994444171</v>
+        <v>1997.003703326249</v>
       </c>
       <c r="U37" t="n">
-        <v>1782.75031799824</v>
+        <v>1711.556026880318</v>
       </c>
       <c r="V37" t="n">
-        <v>1531.694367031696</v>
+        <v>1460.500075913774</v>
       </c>
       <c r="W37" t="n">
-        <v>1245.905734234078</v>
+        <v>1174.711443116156</v>
       </c>
       <c r="X37" t="n">
-        <v>1245.905734234078</v>
+        <v>950.3504294574819</v>
       </c>
       <c r="Y37" t="n">
-        <v>1028.741692329891</v>
+        <v>733.1863875532954</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2295.453245469787</v>
+        <v>2295.453245469789</v>
       </c>
       <c r="C38" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.11926576872</v>
       </c>
       <c r="D38" t="n">
-        <v>1575.48210440131</v>
+        <v>1575.482104401312</v>
       </c>
       <c r="E38" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.322389042411</v>
       </c>
       <c r="F38" t="n">
-        <v>785.9650214921437</v>
+        <v>785.9650214921462</v>
       </c>
       <c r="G38" t="n">
-        <v>375.6104516478937</v>
+        <v>375.6104516478954</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I38" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L38" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M38" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N38" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P38" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q38" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R38" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S38" t="n">
-        <v>4558.742435310219</v>
+        <v>4558.74243531022</v>
       </c>
       <c r="T38" t="n">
         <v>4361.161824228881</v>
       </c>
       <c r="U38" t="n">
-        <v>4111.347032187772</v>
+        <v>4111.347032187773</v>
       </c>
       <c r="V38" t="n">
-        <v>3783.912682083544</v>
+        <v>3783.912682083545</v>
       </c>
       <c r="W38" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052774</v>
       </c>
       <c r="X38" t="n">
-        <v>3064.935343031035</v>
+        <v>3064.935343031037</v>
       </c>
       <c r="Y38" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294568</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F39" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G39" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H39" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I39" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J39" t="n">
-        <v>92.81162322608054</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K39" t="n">
-        <v>92.81162322608054</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L39" t="n">
-        <v>141.6400447072585</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M39" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N39" t="n">
-        <v>1355.754362358723</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O39" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P39" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q39" t="n">
         <v>2552.77562977024</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.4974211856388</v>
+        <v>638.9514545840204</v>
       </c>
       <c r="C40" t="n">
-        <v>761.1897754970746</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="D40" t="n">
-        <v>761.1897754970746</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="E40" t="n">
-        <v>616.9052191540242</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="F40" t="n">
-        <v>473.6438088954565</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0581513093779</v>
+        <v>310.0581513093777</v>
       </c>
       <c r="H40" t="n">
-        <v>171.8139715871511</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I40" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J40" t="n">
-        <v>175.3500754639142</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K40" t="n">
-        <v>438.5351317827576</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L40" t="n">
-        <v>829.8532792141714</v>
+        <v>829.8532792141718</v>
       </c>
       <c r="M40" t="n">
-        <v>1252.63920060691</v>
+        <v>1252.639200606911</v>
       </c>
       <c r="N40" t="n">
-        <v>1670.891395746897</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O40" t="n">
-        <v>2041.470182110206</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P40" t="n">
         <v>2335.556946294691</v>
       </c>
       <c r="Q40" t="n">
-        <v>2456.826409196406</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="R40" t="n">
         <v>2392.59560139425</v>
       </c>
       <c r="S40" t="n">
-        <v>2298.596276798148</v>
+        <v>2296.838942994147</v>
       </c>
       <c r="T40" t="n">
-        <v>2082.546031751873</v>
+        <v>2080.788697947872</v>
       </c>
       <c r="U40" t="n">
-        <v>1797.098355305942</v>
+        <v>1795.341021501941</v>
       </c>
       <c r="V40" t="n">
-        <v>1546.042404339398</v>
+        <v>1544.285070535397</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.042404339398</v>
+        <v>1258.496437737779</v>
       </c>
       <c r="X40" t="n">
-        <v>1321.681390680723</v>
+        <v>1034.135424079105</v>
       </c>
       <c r="Y40" t="n">
-        <v>1104.517348776536</v>
+        <v>816.9713821749174</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469787</v>
       </c>
       <c r="C41" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768718</v>
       </c>
       <c r="D41" t="n">
         <v>1575.482104401311</v>
@@ -7397,22 +7397,22 @@
         <v>1193.322389042409</v>
       </c>
       <c r="F41" t="n">
-        <v>785.9650214921446</v>
+        <v>785.9650214921448</v>
       </c>
       <c r="G41" t="n">
-        <v>375.6104516478937</v>
+        <v>375.6104516478936</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I41" t="n">
         <v>92.81162322608088</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L41" t="n">
         <v>1461.457663018651</v>
@@ -7424,37 +7424,37 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O41" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P41" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q41" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R41" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S41" t="n">
-        <v>4558.74243531022</v>
+        <v>4558.742435310218</v>
       </c>
       <c r="T41" t="n">
-        <v>4361.161824228881</v>
+        <v>4361.16182422888</v>
       </c>
       <c r="U41" t="n">
-        <v>4111.347032187773</v>
+        <v>4111.347032187771</v>
       </c>
       <c r="V41" t="n">
-        <v>3783.912682083545</v>
+        <v>3783.912682083544</v>
       </c>
       <c r="W41" t="n">
-        <v>3434.772564052773</v>
+        <v>3434.772564052772</v>
       </c>
       <c r="X41" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031035</v>
       </c>
       <c r="Y41" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294566</v>
       </c>
     </row>
     <row r="42">
@@ -7476,31 +7476,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F42" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G42" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H42" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I42" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J42" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K42" t="n">
-        <v>301.0525042748304</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L42" t="n">
-        <v>791.7848371185818</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M42" t="n">
-        <v>1383.80319137071</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N42" t="n">
-        <v>2005.899154770046</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O42" t="n">
         <v>2552.77562977024</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.9491062229501</v>
+        <v>555.1664599623982</v>
       </c>
       <c r="C43" t="n">
-        <v>394.6414605343859</v>
+        <v>389.8588142738344</v>
       </c>
       <c r="D43" t="n">
-        <v>394.6414605343859</v>
+        <v>389.8588142738344</v>
       </c>
       <c r="E43" t="n">
-        <v>394.6414605343859</v>
+        <v>389.8588142738344</v>
       </c>
       <c r="F43" t="n">
-        <v>394.6414605343859</v>
+        <v>389.8588142738344</v>
       </c>
       <c r="G43" t="n">
-        <v>231.0558029483075</v>
+        <v>310.0581513093776</v>
       </c>
       <c r="H43" t="n">
-        <v>92.81162322608056</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I43" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J43" t="n">
-        <v>175.3500754639142</v>
+        <v>175.3500754639143</v>
       </c>
       <c r="K43" t="n">
-        <v>438.5351317827576</v>
+        <v>438.5351317827578</v>
       </c>
       <c r="L43" t="n">
-        <v>829.8532792141714</v>
+        <v>829.8532792141716</v>
       </c>
       <c r="M43" t="n">
-        <v>1252.63920060691</v>
+        <v>1252.639200606911</v>
       </c>
       <c r="N43" t="n">
-        <v>1670.891395746897</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O43" t="n">
-        <v>2041.470182110206</v>
+        <v>2041.470182110207</v>
       </c>
       <c r="P43" t="n">
         <v>2335.556946294691</v>
       </c>
       <c r="Q43" t="n">
-        <v>2456.826409196406</v>
+        <v>2456.826409196407</v>
       </c>
       <c r="R43" t="n">
-        <v>2392.59560139425</v>
+        <v>2392.595601394251</v>
       </c>
       <c r="S43" t="n">
-        <v>2213.053948372523</v>
+        <v>2213.053948372524</v>
       </c>
       <c r="T43" t="n">
-        <v>1997.003703326247</v>
+        <v>1997.003703326249</v>
       </c>
       <c r="U43" t="n">
-        <v>1716.338673140872</v>
+        <v>1711.556026880319</v>
       </c>
       <c r="V43" t="n">
-        <v>1465.282722174327</v>
+        <v>1460.500075913775</v>
       </c>
       <c r="W43" t="n">
-        <v>1179.494089376709</v>
+        <v>1174.711443116157</v>
       </c>
       <c r="X43" t="n">
-        <v>955.1330757180347</v>
+        <v>950.3504294574824</v>
       </c>
       <c r="Y43" t="n">
-        <v>737.9690338138472</v>
+        <v>733.1863875532952</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469787</v>
       </c>
       <c r="C44" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768718</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.482104401311</v>
+        <v>1575.48210440131</v>
       </c>
       <c r="E44" t="n">
         <v>1193.322389042409</v>
       </c>
       <c r="F44" t="n">
-        <v>785.9650214921446</v>
+        <v>785.9650214921444</v>
       </c>
       <c r="G44" t="n">
         <v>375.6104516478937</v>
@@ -7643,31 +7643,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322608088</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J44" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L44" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O44" t="n">
         <v>3602.609239333933</v>
       </c>
       <c r="P44" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q44" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R44" t="n">
         <v>4640.581161304028</v>
@@ -7679,16 +7679,16 @@
         <v>4361.161824228881</v>
       </c>
       <c r="U44" t="n">
-        <v>4111.347032187773</v>
+        <v>4111.347032187772</v>
       </c>
       <c r="V44" t="n">
-        <v>3783.912682083545</v>
+        <v>3783.912682083544</v>
       </c>
       <c r="W44" t="n">
-        <v>3434.772564052773</v>
+        <v>3434.772564052772</v>
       </c>
       <c r="X44" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031035</v>
       </c>
       <c r="Y44" t="n">
         <v>2678.424548294567</v>
@@ -7722,31 +7722,31 @@
         <v>92.81162322608056</v>
       </c>
       <c r="I45" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J45" t="n">
-        <v>106.3138404733484</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K45" t="n">
-        <v>106.3138404733484</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L45" t="n">
-        <v>106.3138404733484</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M45" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.428158124812</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O45" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P45" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q45" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R45" t="n">
         <v>2552.77562977024</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>798.9389207862783</v>
+        <v>559.9491062229501</v>
       </c>
       <c r="C46" t="n">
-        <v>633.631275097714</v>
+        <v>394.6414605343859</v>
       </c>
       <c r="D46" t="n">
-        <v>487.1431729247211</v>
+        <v>394.6414605343859</v>
       </c>
       <c r="E46" t="n">
-        <v>342.8586165816705</v>
+        <v>394.6414605343859</v>
       </c>
       <c r="F46" t="n">
-        <v>199.5972063231033</v>
+        <v>394.6414605343859</v>
       </c>
       <c r="G46" t="n">
-        <v>199.5972063231033</v>
+        <v>231.0558029483075</v>
       </c>
       <c r="H46" t="n">
         <v>92.81162322608056</v>
@@ -7816,7 +7816,7 @@
         <v>1252.639200606911</v>
       </c>
       <c r="N46" t="n">
-        <v>1670.891395746897</v>
+        <v>1670.891395746898</v>
       </c>
       <c r="O46" t="n">
         <v>2041.470182110207</v>
@@ -7828,28 +7828,28 @@
         <v>2456.826409196406</v>
       </c>
       <c r="R46" t="n">
-        <v>2456.826409196406</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="S46" t="n">
-        <v>2456.826409196406</v>
+        <v>2213.053948372523</v>
       </c>
       <c r="T46" t="n">
-        <v>2240.776164150131</v>
+        <v>1997.003703326247</v>
       </c>
       <c r="U46" t="n">
-        <v>1955.3284877042</v>
+        <v>1716.338673140872</v>
       </c>
       <c r="V46" t="n">
-        <v>1704.272536737656</v>
+        <v>1465.282722174328</v>
       </c>
       <c r="W46" t="n">
-        <v>1418.483903940038</v>
+        <v>1179.49408937671</v>
       </c>
       <c r="X46" t="n">
-        <v>1194.122890281363</v>
+        <v>955.1330757180353</v>
       </c>
       <c r="Y46" t="n">
-        <v>976.9588483771754</v>
+        <v>737.9690338138472</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>208.3214547517356</v>
+        <v>242.2613672256909</v>
       </c>
       <c r="L2" t="n">
         <v>255.1065912093878</v>
       </c>
       <c r="M2" t="n">
-        <v>248.0411260722765</v>
+        <v>246.6698164773692</v>
       </c>
       <c r="N2" t="n">
         <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
-        <v>247.0788903523176</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
         <v>251.8689757786171</v>
@@ -8219,16 +8219,16 @@
         <v>240.6620276789126</v>
       </c>
       <c r="L5" t="n">
-        <v>252.0299206180583</v>
+        <v>250.4751301597643</v>
       </c>
       <c r="M5" t="n">
-        <v>244.1059827132785</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N5" t="n">
-        <v>241.2180059126716</v>
+        <v>242.7727963709657</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>244.8579146936526</v>
       </c>
       <c r="P5" t="n">
         <v>210.9873633211545</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.53324699936962</v>
+        <v>73.53324699937542</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>7.13474606706238</v>
+        <v>7.134746067062807</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>133.7347801277618</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.7347801277589</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.312647829089</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>51.31264782908778</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.31264782908892</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>290.0849437131632</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>155.7407867130586</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>83.72999584840356</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8277092329558</v>
       </c>
       <c r="H13" t="n">
         <v>142.9937344825131</v>
       </c>
       <c r="I13" t="n">
-        <v>70.74646469731493</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.7025261647688</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>284.8219137306516</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613729001</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>103.2637589681807</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>244.9168279323335</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>93.5129261713211</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>16.7105970704649</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>84.1694538659744</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>140.8859675251692</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>79.37477505516598</v>
+        <v>157.8125473841248</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.19511218765636</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>48.25201353044645</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
         <v>81.80457674440902</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108341</v>
       </c>
       <c r="S31" t="n">
-        <v>157.4398111833792</v>
+        <v>181.3384883584588</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>182.516970023664</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.734819797949399</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>78.21232487745979</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>82.94714467540834</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>4.734819797945846</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F37" t="n">
-        <v>141.828796155982</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>78.21232487745979</v>
+        <v>78.21232487745966</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>63.58849972413432</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>6.89384848261011</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>222.1174035220879</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>145.0232211512631</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>141.8287961559819</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>84.68690514136905</v>
+        <v>82.94714467540604</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>282.9307464696418</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>145.0232211512631</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E43" t="n">
-        <v>142.8417107796199</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F43" t="n">
-        <v>141.828796155982</v>
+        <v>141.8287961559818</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>82.94714467540537</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>78.21232487745979</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>4.734819797949683</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>145.0232211512631</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>141.828796155982</v>
       </c>
       <c r="G46" t="n">
-        <v>161.9498010102177</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>31.14401065895222</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>78.21232487745979</v>
+        <v>78.21232487745976</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.58849972413432</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>177.7462364915097</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>4.734819797949701</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1101024.650212163</v>
+        <v>1101024.650212164</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>976444.5193130396</v>
+        <v>976444.5193130389</v>
       </c>
     </row>
     <row r="6">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348942.7521923204</v>
+      </c>
+      <c r="C2" t="n">
         <v>348942.7521923203</v>
       </c>
-      <c r="C2" t="n">
-        <v>348942.7521923204</v>
-      </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923207</v>
       </c>
       <c r="E2" t="n">
-        <v>310851.4765935688</v>
+        <v>310851.4765935687</v>
       </c>
       <c r="F2" t="n">
-        <v>341138.9029461632</v>
+        <v>341138.9029461634</v>
       </c>
       <c r="G2" t="n">
         <v>342840.2652753877</v>
@@ -26332,7 +26332,7 @@
         <v>342840.2652753877</v>
       </c>
       <c r="I2" t="n">
-        <v>342840.2652753878</v>
+        <v>342840.2652753877</v>
       </c>
       <c r="J2" t="n">
         <v>342840.2652753877</v>
@@ -26341,19 +26341,19 @@
         <v>342840.2652753877</v>
       </c>
       <c r="L2" t="n">
-        <v>343713.8152901453</v>
+        <v>343713.8152901454</v>
       </c>
       <c r="M2" t="n">
         <v>343713.8152901453</v>
       </c>
       <c r="N2" t="n">
-        <v>343713.8152901451</v>
+        <v>343713.8152901452</v>
       </c>
       <c r="O2" t="n">
-        <v>343713.8152901451</v>
+        <v>343713.8152901456</v>
       </c>
       <c r="P2" t="n">
-        <v>343713.8152901451</v>
+        <v>343713.8152901454</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>541175.1864270701</v>
+        <v>541175.1864270681</v>
       </c>
       <c r="E3" t="n">
-        <v>703377.0148017517</v>
+        <v>703377.0148017523</v>
       </c>
       <c r="F3" t="n">
-        <v>180835.0655769708</v>
+        <v>180835.0655769721</v>
       </c>
       <c r="G3" t="n">
         <v>3551.88439016159</v>
@@ -26390,19 +26390,19 @@
         <v>8880.174459335547</v>
       </c>
       <c r="K3" t="n">
-        <v>1168.747045491171</v>
+        <v>1168.747045491111</v>
       </c>
       <c r="L3" t="n">
-        <v>53943.80524442406</v>
+        <v>53943.80524442389</v>
       </c>
       <c r="M3" t="n">
         <v>177632.0132298243</v>
       </c>
       <c r="N3" t="n">
-        <v>47545.82219493514</v>
+        <v>47545.82219493561</v>
       </c>
       <c r="O3" t="n">
-        <v>3118.611125660987</v>
+        <v>3118.611125660823</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>253226.2146602735</v>
+        <v>253226.2146602741</v>
       </c>
       <c r="E4" t="n">
         <v>8010.238684033253</v>
@@ -26430,34 +26430,34 @@
         <v>8110.779805506623</v>
       </c>
       <c r="G4" t="n">
-        <v>9342.252565816061</v>
+        <v>9342.252565816083</v>
       </c>
       <c r="H4" t="n">
         <v>9342.252565816061</v>
       </c>
       <c r="I4" t="n">
-        <v>9342.252565816078</v>
+        <v>9342.252565816096</v>
       </c>
       <c r="J4" t="n">
         <v>9342.252565816096</v>
       </c>
       <c r="K4" t="n">
-        <v>9342.252565816059</v>
+        <v>9342.252565816263</v>
       </c>
       <c r="L4" t="n">
         <v>11577.70757651841</v>
       </c>
       <c r="M4" t="n">
-        <v>11577.70757651841</v>
+        <v>11577.70757651854</v>
       </c>
       <c r="N4" t="n">
         <v>11577.70757651846</v>
       </c>
       <c r="O4" t="n">
+        <v>11577.70757651858</v>
+      </c>
+      <c r="P4" t="n">
         <v>11577.70757651843</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11577.70757651841</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>61864.76298906974</v>
+        <v>61864.76298906963</v>
       </c>
       <c r="E5" t="n">
-        <v>84886.15966645666</v>
+        <v>84886.15966645656</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
         <v>100930.0394572385</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121060.9595465294</v>
+        <v>-121060.9595465293</v>
       </c>
       <c r="C6" t="n">
         <v>-97246.82908741926</v>
       </c>
       <c r="D6" t="n">
-        <v>-507323.4118840929</v>
+        <v>-507323.4118840912</v>
       </c>
       <c r="E6" t="n">
-        <v>-485421.9365586728</v>
+        <v>-485646.0028857249</v>
       </c>
       <c r="F6" t="n">
-        <v>52050.9290498474</v>
+        <v>52005.02405428059</v>
       </c>
       <c r="G6" t="n">
-        <v>229016.0888621715</v>
+        <v>228980.1918803071</v>
       </c>
       <c r="H6" t="n">
-        <v>232567.9732523331</v>
+        <v>232532.0762704689</v>
       </c>
       <c r="I6" t="n">
-        <v>232567.9732523331</v>
+        <v>232532.0762704687</v>
       </c>
       <c r="J6" t="n">
-        <v>223687.7987929975</v>
+        <v>223651.9018111331</v>
       </c>
       <c r="K6" t="n">
-        <v>231399.2262068419</v>
+        <v>231363.3292249774</v>
       </c>
       <c r="L6" t="n">
-        <v>177748.1769331619</v>
+        <v>177717.4184807964</v>
       </c>
       <c r="M6" t="n">
-        <v>54059.96894776155</v>
+        <v>54029.21049539578</v>
       </c>
       <c r="N6" t="n">
-        <v>184146.1599826505</v>
+        <v>184115.4015302844</v>
       </c>
       <c r="O6" t="n">
-        <v>228573.3710519247</v>
+        <v>228542.6125995594</v>
       </c>
       <c r="P6" t="n">
-        <v>231691.9821775857</v>
+        <v>231661.2237252203</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="M2" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="N2" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="O2" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="P2" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>589.0397541227452</v>
+        <v>589.0397541227431</v>
       </c>
       <c r="E3" t="n">
-        <v>1199.631615051652</v>
+        <v>1199.63161505165</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26793,10 +26793,10 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>253.2252689012153</v>
+        <v>253.2252689012143</v>
       </c>
       <c r="E4" t="n">
-        <v>966.0228693804385</v>
+        <v>966.0228693804372</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26814,7 +26814,7 @@
         <v>1173.104351895088</v>
       </c>
       <c r="K4" t="n">
-        <v>1173.104351895088</v>
+        <v>1173.104351895087</v>
       </c>
       <c r="L4" t="n">
         <v>1160.145290326007</v>
@@ -26826,7 +26826,7 @@
         <v>1160.145290326007</v>
       </c>
       <c r="O4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="P4" t="n">
         <v>1160.145290326007</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949082</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.27453603226968e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>554.0184934036199</v>
+        <v>554.0184934036179</v>
       </c>
       <c r="E3" t="n">
-        <v>610.5918609289064</v>
+        <v>610.5918609289073</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4094336647343</v>
+        <v>158.4094336647354</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>214.7442050584372</v>
+        <v>214.7442050584363</v>
       </c>
       <c r="E4" t="n">
-        <v>712.7976004792232</v>
+        <v>712.7976004792229</v>
       </c>
       <c r="F4" t="n">
-        <v>194.1224209455683</v>
+        <v>194.1224209455697</v>
       </c>
       <c r="G4" t="n">
         <v>12.95906156908109</v>
@@ -27036,19 +27036,19 @@
         <v>33.93991247395525</v>
       </c>
       <c r="K4" t="n">
-        <v>4.541151368822739</v>
+        <v>4.541151368822057</v>
       </c>
       <c r="L4" t="n">
-        <v>201.7851434893563</v>
+        <v>201.7851434893561</v>
       </c>
       <c r="M4" t="n">
-        <v>712.7976004792232</v>
+        <v>712.7976004792226</v>
       </c>
       <c r="N4" t="n">
-        <v>194.122420945568</v>
+        <v>194.12242094557</v>
       </c>
       <c r="O4" t="n">
-        <v>12.95906156908131</v>
+        <v>12.95906156908063</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27261,13 +27261,13 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>214.7442050584372</v>
+        <v>214.7442050584363</v>
       </c>
       <c r="M4" t="n">
-        <v>712.7976004792232</v>
+        <v>712.7976004792229</v>
       </c>
       <c r="N4" t="n">
-        <v>194.1224209455683</v>
+        <v>194.1224209455697</v>
       </c>
       <c r="O4" t="n">
         <v>12.95906156908109</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>331.3329792970522</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>356.1331952180541</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>372.9361332677561</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>381.270308929876</v>
+        <v>396.2890922913352</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>304.587409016923</v>
       </c>
       <c r="I2" t="n">
         <v>206.909162189371</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644702</v>
+        <v>110.1176902905148</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>172.9719462259575</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>138.7685865143604</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>113.5051530906834</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>127.7508055483411</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>77.81746130333066</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>53.75242741433431</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>191.9982129962619</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>217.7550706869643</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.7884208702445</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>133.9876872582255</v>
       </c>
       <c r="F4" t="n">
-        <v>111.4811355489759</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>127.9182913733584</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
         <v>154.2024705022108</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.6870224659892</v>
+        <v>48.74710999203386</v>
       </c>
       <c r="R4" t="n">
-        <v>141.487508562741</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
         <v>223.2933741908973</v>
@@ -27594,16 +27594,16 @@
         <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>218.1977308498727</v>
       </c>
       <c r="W4" t="n">
-        <v>274.0767229482473</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>184.6447408781395</v>
       </c>
     </row>
     <row r="5">
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>343.4493062294837</v>
       </c>
       <c r="F5" t="n">
-        <v>368.3949818989333</v>
+        <v>372.9819247089925</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>376.6808846845414</v>
       </c>
       <c r="H5" t="n">
         <v>338.0329468943008</v>
@@ -27664,10 +27664,10 @@
         <v>102.5442178425012</v>
       </c>
       <c r="S5" t="n">
-        <v>167.3307766836197</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
-        <v>203.7473732645692</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U5" t="n">
         <v>251.3343897888113</v>
@@ -27698,13 +27698,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>108.9640017218607</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>111.1750913606649</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27743,16 +27743,16 @@
         <v>56.99978005760148</v>
       </c>
       <c r="S6" t="n">
-        <v>131.802908778555</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T6" t="n">
         <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9364262421938</v>
+        <v>187.4553623994157</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>194.3195233066472</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>171.7885747445854</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>160.8701097949304</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,10 +27786,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>148.9659558783518</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6656840978772</v>
+        <v>123.1846202550991</v>
       </c>
       <c r="I7" t="n">
         <v>153.551289182031</v>
@@ -27822,7 +27822,7 @@
         <v>174.4537986637794</v>
       </c>
       <c r="S7" t="n">
-        <v>184.4349480171685</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T7" t="n">
         <v>227.6757534850358</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>171.2460515835179</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>101.4577727194686</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>128.7051011710474</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>159.7094696023711</v>
+        <v>197.8902674290609</v>
       </c>
       <c r="H8" t="n">
-        <v>315.2235322387438</v>
+        <v>315.2235322387439</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>119.183607677674</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>155.059292110579</v>
       </c>
       <c r="T8" t="n">
-        <v>212.7299338910768</v>
+        <v>212.7299338910769</v>
       </c>
       <c r="U8" t="n">
         <v>251.1562129869126</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>116.5058317772538</v>
+        <v>116.5058317772547</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,13 +27932,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>127.6117004322877</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,10 +27947,10 @@
         <v>136.0765259939655</v>
       </c>
       <c r="H9" t="n">
-        <v>99.99897689141829</v>
+        <v>99.99897689141834</v>
       </c>
       <c r="I9" t="n">
-        <v>45.77434917345705</v>
+        <v>45.7743491734572</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>21.49324208319422</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>127.7269575998546</v>
+        <v>148.1493658329905</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0578651661536</v>
+        <v>195.0578651661537</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8580273987876</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95.11670076733702</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9287765231554</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7832236626519</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.5071387528642</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.2614396607287</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.5328893461679</v>
+        <v>129.5328893461681</v>
       </c>
       <c r="S10" t="n">
-        <v>205.5052995344591</v>
+        <v>205.5052995344592</v>
       </c>
       <c r="T10" t="n">
         <v>223.4070864047128</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2610910200198</v>
+        <v>77.03119383468396</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>33.29772943537574</v>
+        <v>33.29772943537665</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>2.313459306871171e-12</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29563,22 +29563,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.447730824111204e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="C32" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="D32" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="E32" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="F32" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="G32" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="H32" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="T32" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="U32" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="V32" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="W32" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="X32" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="C34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="D34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="E34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="F34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="G34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="H34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="I34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="J34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="K34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="L34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="M34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="N34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="O34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="P34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="R34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="S34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="T34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="U34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="V34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="W34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="X34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949227</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="C35" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="D35" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="E35" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="F35" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="G35" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="H35" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="T35" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="U35" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="V35" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="W35" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="X35" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="C37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="D37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="E37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="F37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="G37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="H37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="I37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="J37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="K37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="L37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="M37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="N37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="O37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="P37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="R37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="S37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="T37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="U37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="V37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="W37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="X37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="C38" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="D38" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="E38" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="F38" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="G38" t="n">
-        <v>3.592251866950164</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="H38" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866947606</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="T38" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="U38" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="V38" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="W38" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="X38" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="C40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="D40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="E40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="F40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="G40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="H40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="I40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="J40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="K40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="L40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="M40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="N40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="O40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="P40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="R40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="S40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="T40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="U40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="V40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="W40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="X40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.592251866949226</v>
+        <v>3.592251866949354</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="C41" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="D41" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="E41" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="F41" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="G41" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="H41" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.592251866949596</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="T41" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="U41" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="V41" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="W41" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="X41" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="C43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="D43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="E43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="F43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="G43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="H43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="I43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="J43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="K43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="L43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="M43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="N43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="O43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="P43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="R43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="S43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="T43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="U43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="V43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="W43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="X43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949394</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="C44" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="D44" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="E44" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="F44" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="G44" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="H44" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="T44" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="U44" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="V44" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="W44" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="X44" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="C46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="D46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="E46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="F46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="G46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="H46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="I46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="J46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="K46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="L46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="M46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="N46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="O46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="P46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="R46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="S46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="T46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="U46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="V46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="W46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="X46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.592251866949227</v>
+        <v>3.592251866949249</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.367999011548723</v>
+        <v>2.367999011548714</v>
       </c>
       <c r="H8" t="n">
-        <v>24.25126987702336</v>
+        <v>24.25126987702328</v>
       </c>
       <c r="I8" t="n">
-        <v>91.29228189273222</v>
+        <v>91.29228189273189</v>
       </c>
       <c r="J8" t="n">
-        <v>200.9809561064336</v>
+        <v>200.9809561064329</v>
       </c>
       <c r="K8" t="n">
-        <v>301.2183542652911</v>
+        <v>301.21835426529</v>
       </c>
       <c r="L8" t="n">
-        <v>373.6880040149754</v>
+        <v>373.6880040149741</v>
       </c>
       <c r="M8" t="n">
-        <v>415.7999064366049</v>
+        <v>415.7999064366035</v>
       </c>
       <c r="N8" t="n">
-        <v>422.5279836281678</v>
+        <v>422.5279836281663</v>
       </c>
       <c r="O8" t="n">
-        <v>398.9811934570802</v>
+        <v>398.9811934570787</v>
       </c>
       <c r="P8" t="n">
-        <v>340.521217859471</v>
+        <v>340.5212178594698</v>
       </c>
       <c r="Q8" t="n">
-        <v>255.7172532583823</v>
+        <v>255.7172532583814</v>
       </c>
       <c r="R8" t="n">
-        <v>148.7488179091976</v>
+        <v>148.7488179091971</v>
       </c>
       <c r="S8" t="n">
-        <v>53.96077747566657</v>
+        <v>53.96077747566638</v>
       </c>
       <c r="T8" t="n">
-        <v>10.36591567305454</v>
+        <v>10.3659156730545</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1894399209238978</v>
+        <v>0.1894399209238971</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.26699116924515</v>
+        <v>1.266991169245146</v>
       </c>
       <c r="H9" t="n">
-        <v>12.23646734507816</v>
+        <v>12.23646734507812</v>
       </c>
       <c r="I9" t="n">
-        <v>43.62228367795802</v>
+        <v>43.62228367795787</v>
       </c>
       <c r="J9" t="n">
-        <v>119.7028805996043</v>
+        <v>119.7028805996039</v>
       </c>
       <c r="K9" t="n">
-        <v>204.5912889390293</v>
+        <v>204.5912889390286</v>
       </c>
       <c r="L9" t="n">
-        <v>275.0982361117595</v>
+        <v>275.0982361117585</v>
       </c>
       <c r="M9" t="n">
-        <v>321.0266659968961</v>
+        <v>321.026665996895</v>
       </c>
       <c r="N9" t="n">
-        <v>329.5232866011762</v>
+        <v>329.523286601175</v>
       </c>
       <c r="O9" t="n">
-        <v>301.4494296405336</v>
+        <v>301.4494296405325</v>
       </c>
       <c r="P9" t="n">
-        <v>241.9397435376989</v>
+        <v>241.9397435376981</v>
       </c>
       <c r="Q9" t="n">
-        <v>161.7303113583809</v>
+        <v>161.7303113583804</v>
       </c>
       <c r="R9" t="n">
-        <v>78.66459206944891</v>
+        <v>78.66459206944863</v>
       </c>
       <c r="S9" t="n">
-        <v>23.5338052708474</v>
+        <v>23.53380527084732</v>
       </c>
       <c r="T9" t="n">
-        <v>5.106863528667949</v>
+        <v>5.106863528667931</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08335468218718096</v>
+        <v>0.08335468218718067</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.062202835303311</v>
+        <v>1.062202835303307</v>
       </c>
       <c r="H10" t="n">
-        <v>9.443948844787625</v>
+        <v>9.443948844787593</v>
       </c>
       <c r="I10" t="n">
-        <v>31.94333617439412</v>
+        <v>31.94333617439401</v>
       </c>
       <c r="J10" t="n">
-        <v>75.09774045594408</v>
+        <v>75.09774045594382</v>
       </c>
       <c r="K10" t="n">
-        <v>123.408656683421</v>
+        <v>123.4086566834206</v>
       </c>
       <c r="L10" t="n">
-        <v>157.9205924413668</v>
+        <v>157.9205924413663</v>
       </c>
       <c r="M10" t="n">
-        <v>166.5051226284999</v>
+        <v>166.5051226284993</v>
       </c>
       <c r="N10" t="n">
-        <v>162.5460029696422</v>
+        <v>162.5460029696416</v>
       </c>
       <c r="O10" t="n">
-        <v>150.1375425754171</v>
+        <v>150.1375425754166</v>
       </c>
       <c r="P10" t="n">
-        <v>128.4686047352295</v>
+        <v>128.468604735229</v>
       </c>
       <c r="Q10" t="n">
-        <v>88.94500287253452</v>
+        <v>88.94500287253422</v>
       </c>
       <c r="R10" t="n">
-        <v>47.76050203100159</v>
+        <v>47.76050203100142</v>
       </c>
       <c r="S10" t="n">
-        <v>18.51129850251315</v>
+        <v>18.51129850251308</v>
       </c>
       <c r="T10" t="n">
-        <v>4.538503023568691</v>
+        <v>4.538503023568675</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05793833647108975</v>
+        <v>0.05793833647108955</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.822639658499098</v>
+        <v>4.822639658499093</v>
       </c>
       <c r="H11" t="n">
-        <v>49.3898584026039</v>
+        <v>49.38985840260386</v>
       </c>
       <c r="I11" t="n">
-        <v>185.9248154342867</v>
+        <v>185.9248154342865</v>
       </c>
       <c r="J11" t="n">
-        <v>409.3155127155382</v>
+        <v>409.3155127155378</v>
       </c>
       <c r="K11" t="n">
-        <v>613.4578494598052</v>
+        <v>613.4578494598046</v>
       </c>
       <c r="L11" t="n">
-        <v>761.0487079085971</v>
+        <v>761.0487079085964</v>
       </c>
       <c r="M11" t="n">
-        <v>846.8133259354304</v>
+        <v>846.8133259354296</v>
       </c>
       <c r="N11" t="n">
-        <v>860.5156508651411</v>
+        <v>860.5156508651402</v>
       </c>
       <c r="O11" t="n">
-        <v>812.5605277609405</v>
+        <v>812.5605277609397</v>
       </c>
       <c r="P11" t="n">
-        <v>693.501611191744</v>
+        <v>693.5016111917433</v>
       </c>
       <c r="Q11" t="n">
-        <v>520.7908284217449</v>
+        <v>520.7908284217443</v>
       </c>
       <c r="R11" t="n">
-        <v>302.9401384481943</v>
+        <v>302.940138448194</v>
       </c>
       <c r="S11" t="n">
-        <v>109.8959012180483</v>
+        <v>109.8959012180482</v>
       </c>
       <c r="T11" t="n">
-        <v>21.11110510507981</v>
+        <v>21.11110510507979</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3858111726799278</v>
+        <v>0.3858111726799274</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.580339700299779</v>
+        <v>2.580339700299776</v>
       </c>
       <c r="H12" t="n">
-        <v>24.92064921078997</v>
+        <v>24.92064921078995</v>
       </c>
       <c r="I12" t="n">
-        <v>88.84064319014591</v>
+        <v>88.84064319014583</v>
       </c>
       <c r="J12" t="n">
-        <v>141.5149039136976</v>
+        <v>243.7855152813925</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>416.6682752014775</v>
       </c>
       <c r="L12" t="n">
-        <v>560.2619160672832</v>
+        <v>560.2619160672826</v>
       </c>
       <c r="M12" t="n">
-        <v>653.79923020315</v>
+        <v>653.7992302031494</v>
       </c>
       <c r="N12" t="n">
-        <v>671.1033503863008</v>
+        <v>671.1033503863002</v>
       </c>
       <c r="O12" t="n">
-        <v>613.9284549217637</v>
+        <v>232.8310073269527</v>
       </c>
       <c r="P12" t="n">
-        <v>492.731709963385</v>
+        <v>492.7317099633846</v>
       </c>
       <c r="Q12" t="n">
-        <v>329.3780992873894</v>
+        <v>329.378099287389</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>47.92867820512964</v>
+        <v>47.92867820512959</v>
       </c>
       <c r="T12" t="n">
-        <v>10.40057975691007</v>
+        <v>10.40057975691006</v>
       </c>
       <c r="U12" t="n">
-        <v>0.169759190809196</v>
+        <v>0.1697591908091959</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.163270125502978</v>
+        <v>2.163270125502976</v>
       </c>
       <c r="H13" t="n">
-        <v>19.23343802492649</v>
+        <v>19.23343802492647</v>
       </c>
       <c r="I13" t="n">
-        <v>65.05543250148958</v>
+        <v>65.05543250148952</v>
       </c>
       <c r="J13" t="n">
-        <v>152.9431978730605</v>
+        <v>152.9431978730604</v>
       </c>
       <c r="K13" t="n">
-        <v>251.332656399346</v>
+        <v>251.3326563993457</v>
       </c>
       <c r="L13" t="n">
-        <v>321.6192693861428</v>
+        <v>321.6192693861425</v>
       </c>
       <c r="M13" t="n">
-        <v>339.1024252186168</v>
+        <v>339.1024252186165</v>
       </c>
       <c r="N13" t="n">
-        <v>331.039327478106</v>
+        <v>331.0393274781056</v>
       </c>
       <c r="O13" t="n">
-        <v>305.768399193821</v>
+        <v>305.7683991938208</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6376886335601</v>
+        <v>261.6376886335598</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.1443738727994</v>
+        <v>181.1443738727992</v>
       </c>
       <c r="R13" t="n">
-        <v>97.26849127943387</v>
+        <v>97.26849127943379</v>
       </c>
       <c r="S13" t="n">
-        <v>37.69989845990189</v>
+        <v>37.69989845990185</v>
       </c>
       <c r="T13" t="n">
-        <v>9.243063263512722</v>
+        <v>9.243063263512713</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1179965523001626</v>
+        <v>0.1179965523001625</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396499</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>306.4674191928274</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927639</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
         <v>634.2436048745725</v>
@@ -32324,13 +32324,13 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>344.3187317059965</v>
+        <v>489.7119024980487</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>348.1857632660254</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>490.1800829631214</v>
       </c>
       <c r="M21" t="n">
         <v>740.1323715504302</v>
@@ -32564,10 +32564,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,28 +32786,28 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>289.4721893678483</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
         <v>471.6886536848224</v>
@@ -33035,13 +33035,13 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O27" t="n">
-        <v>147.6720980399082</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
         <v>740.1323715504302</v>
@@ -33512,13 +33512,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33749,10 +33749,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P36" t="n">
-        <v>413.7326212867942</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
         <v>740.1323715504302</v>
@@ -33986,13 +33986,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34208,10 +34208,10 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>348.1857632660256</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
         <v>634.2436048745725</v>
@@ -34223,7 +34223,7 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,16 +34442,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>139.4267020936821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
         <v>740.1323715504302</v>
@@ -34460,16 +34460,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.25758340862161</v>
@@ -34699,19 +34699,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="L2" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="M2" t="n">
-        <v>33.93991247395533</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>32.56860287904804</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>33.93991247395533</v>
@@ -34939,16 +34939,16 @@
         <v>38.48106384277808</v>
       </c>
       <c r="L5" t="n">
+        <v>36.92627338448402</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="N5" t="n">
-        <v>36.92627338448403</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>93.46829857911692</v>
+        <v>93.46829857912201</v>
       </c>
       <c r="K8" t="n">
-        <v>81.12850322031051</v>
+        <v>81.12850322030948</v>
       </c>
       <c r="L8" t="n">
-        <v>137.9215890449881</v>
+        <v>137.9215890449868</v>
       </c>
       <c r="M8" t="n">
-        <v>185.4536732093322</v>
+        <v>185.4536732093308</v>
       </c>
       <c r="N8" t="n">
-        <v>193.1149200315768</v>
+        <v>193.1149200315754</v>
       </c>
       <c r="O8" t="n">
-        <v>168.8829820353934</v>
+        <v>168.882982035392</v>
       </c>
       <c r="P8" t="n">
-        <v>109.2882221042015</v>
+        <v>109.2882221042003</v>
       </c>
       <c r="Q8" t="n">
-        <v>33.41156338393282</v>
+        <v>33.41156338393193</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>66.74984996467035</v>
+        <v>200.4846300924314</v>
       </c>
       <c r="L9" t="n">
-        <v>136.5438563318853</v>
+        <v>136.5438563318843</v>
       </c>
       <c r="M9" t="n">
-        <v>178.8926320748778</v>
+        <v>178.8926320748766</v>
       </c>
       <c r="N9" t="n">
-        <v>198.1815745178428</v>
+        <v>198.1815745178417</v>
       </c>
       <c r="O9" t="n">
-        <v>158.8531851960892</v>
+        <v>158.8531851960881</v>
       </c>
       <c r="P9" t="n">
-        <v>107.9653361233686</v>
+        <v>107.9653361233678</v>
       </c>
       <c r="Q9" t="n">
-        <v>155.4833174001183</v>
+        <v>21.74853727235885</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35331,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>101.1391648575381</v>
+        <v>101.1391648575377</v>
       </c>
       <c r="L10" t="n">
-        <v>185.5106177016829</v>
+        <v>185.5106177016824</v>
       </c>
       <c r="M10" t="n">
-        <v>206.0889995903405</v>
+        <v>206.0889995903399</v>
       </c>
       <c r="N10" t="n">
-        <v>206.6781753488708</v>
+        <v>206.6781753488702</v>
       </c>
       <c r="O10" t="n">
-        <v>174.7226704894568</v>
+        <v>174.7226704894563</v>
       </c>
       <c r="P10" t="n">
-        <v>125.747164000123</v>
+        <v>125.7471640001225</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.782959620840131</v>
+        <v>2.782959620839833</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>228.2696081888519</v>
+        <v>228.2696081888515</v>
       </c>
       <c r="K11" t="n">
-        <v>393.3679984148246</v>
+        <v>393.3679984148241</v>
       </c>
       <c r="L11" t="n">
-        <v>525.2822929386098</v>
+        <v>525.2822929386091</v>
       </c>
       <c r="M11" t="n">
-        <v>616.4670927081577</v>
+        <v>616.4670927081569</v>
       </c>
       <c r="N11" t="n">
-        <v>631.1025872685502</v>
+        <v>631.1025872685493</v>
       </c>
       <c r="O11" t="n">
-        <v>582.4623163392538</v>
+        <v>582.462316339253</v>
       </c>
       <c r="P11" t="n">
-        <v>462.2686154364745</v>
+        <v>462.2686154364738</v>
       </c>
       <c r="Q11" t="n">
-        <v>298.4851385472954</v>
+        <v>298.4851385472948</v>
       </c>
       <c r="R11" t="n">
-        <v>87.35460063406214</v>
+        <v>87.35460063406185</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>14.6772772470309</v>
+        <v>116.9478886147258</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>278.8268362271185</v>
       </c>
       <c r="L12" t="n">
-        <v>421.707536287409</v>
+        <v>421.7075362874085</v>
       </c>
       <c r="M12" t="n">
-        <v>511.6651962811317</v>
+        <v>511.665196281131</v>
       </c>
       <c r="N12" t="n">
-        <v>539.7616383029675</v>
+        <v>539.761638302967</v>
       </c>
       <c r="O12" t="n">
-        <v>471.3322104773192</v>
+        <v>90.23476288250825</v>
       </c>
       <c r="P12" t="n">
-        <v>358.7573025490548</v>
+        <v>358.7573025490543</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.3963252013679</v>
+        <v>189.3963252013675</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.58401775638777</v>
+        <v>59.58401775638762</v>
       </c>
       <c r="K13" t="n">
-        <v>229.0631645734631</v>
+        <v>229.0631645734628</v>
       </c>
       <c r="L13" t="n">
-        <v>349.2092946464589</v>
+        <v>349.2092946464586</v>
       </c>
       <c r="M13" t="n">
-        <v>378.6863021804573</v>
+        <v>378.6863021804571</v>
       </c>
       <c r="N13" t="n">
-        <v>375.1714998573345</v>
+        <v>375.1714998573342</v>
       </c>
       <c r="O13" t="n">
-        <v>330.3535271078607</v>
+        <v>330.3535271078604</v>
       </c>
       <c r="P13" t="n">
-        <v>258.9162478984535</v>
+        <v>258.9162478984533</v>
       </c>
       <c r="Q13" t="n">
-        <v>94.98233062110499</v>
+        <v>94.98233062110482</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977576</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>164.3333852708091</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094306</v>
@@ -35905,7 +35905,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>178.6700086136732</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
         <v>495.6892250946983</v>
@@ -35972,13 +35972,13 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>210.3443242916662</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>210.3443242916665</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>351.6257031832473</v>
       </c>
       <c r="M21" t="n">
         <v>597.9983376284119</v>
@@ -36212,10 +36212,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K23" t="n">
         <v>474.3741250380626</v>
@@ -36370,7 +36370,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
         <v>553.844392613483</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>151.6307503934893</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
         <v>333.8472147104634</v>
@@ -36683,13 +36683,13 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O27" t="n">
-        <v>5.07585359546375</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607202</v>
+        <v>333.631713989808</v>
       </c>
       <c r="K29" t="n">
         <v>474.3741250380626</v>
@@ -36850,7 +36850,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>418.5673812695001</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
         <v>127.3573607845842</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066066</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642059</v>
       </c>
       <c r="L31" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243782</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883429</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O31" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606361</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931361</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044799</v>
+        <v>118.90215510448</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>49.32163785977574</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
         <v>597.9983376284119</v>
@@ -37160,13 +37160,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>374.3220064275852</v>
       </c>
       <c r="P34" t="n">
-        <v>297.0573375600851</v>
+        <v>297.0573375600852</v>
       </c>
       <c r="Q34" t="n">
         <v>122.4944069714291</v>
@@ -37397,10 +37397,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P36" t="n">
-        <v>279.758213872464</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>83.37217397760975</v>
+        <v>83.37217397760988</v>
       </c>
       <c r="K37" t="n">
-        <v>265.843491231155</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L37" t="n">
-        <v>395.2708559913273</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M37" t="n">
-        <v>427.056486255292</v>
+        <v>427.0564862552922</v>
       </c>
       <c r="N37" t="n">
-        <v>422.4769647878653</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O37" t="n">
-        <v>374.3220064275852</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P37" t="n">
-        <v>297.0573375600851</v>
+        <v>297.0573375600853</v>
       </c>
       <c r="Q37" t="n">
-        <v>122.4944069714291</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>49.32163785977576</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
         <v>597.9983376284119</v>
@@ -37634,13 +37634,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.37217397760975</v>
+        <v>83.37217397760988</v>
       </c>
       <c r="K40" t="n">
-        <v>265.843491231155</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L40" t="n">
-        <v>395.2708559913273</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M40" t="n">
-        <v>427.056486255292</v>
+        <v>427.0564862552922</v>
       </c>
       <c r="N40" t="n">
-        <v>422.4769647878653</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O40" t="n">
-        <v>374.3220064275852</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P40" t="n">
-        <v>297.0573375600851</v>
+        <v>297.0573375600853</v>
       </c>
       <c r="Q40" t="n">
-        <v>122.4944069714291</v>
+        <v>122.4944069714292</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>210.3443242916665</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
         <v>495.6892250946983</v>
@@ -37871,7 +37871,7 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>83.37217397760975</v>
+        <v>83.37217397760992</v>
       </c>
       <c r="K43" t="n">
-        <v>265.843491231155</v>
+        <v>265.8434912311551</v>
       </c>
       <c r="L43" t="n">
-        <v>395.2708559913273</v>
+        <v>395.2708559913274</v>
       </c>
       <c r="M43" t="n">
-        <v>427.056486255292</v>
+        <v>427.0564862552922</v>
       </c>
       <c r="N43" t="n">
-        <v>422.4769647878653</v>
+        <v>422.4769647878654</v>
       </c>
       <c r="O43" t="n">
-        <v>374.3220064275852</v>
+        <v>374.3220064275853</v>
       </c>
       <c r="P43" t="n">
-        <v>297.0573375600852</v>
+        <v>297.0573375600853</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.4944069714291</v>
+        <v>122.4944069714293</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>12.58907542701537</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
         <v>597.9983376284119</v>
@@ -38108,16 +38108,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>83.37217397760975</v>
+        <v>83.37217397760978</v>
       </c>
       <c r="K46" t="n">
         <v>265.843491231155</v>
